--- a/MyTestCase.xlsx
+++ b/MyTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17550" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -85,13 +85,6 @@
   <si>
     <t>Create organization page 
 should be displayed</t>
-  </si>
-  <si>
-    <t>vtiger</t>
-  </si>
-  <si>
-    <t>Organization with the name vtiger
-must be present.</t>
   </si>
   <si>
     <t>&gt;Here, click on Search text and enter the Organization name as:
@@ -135,13 +128,6 @@
 for the Emails</t>
   </si>
   <si>
-    <t>*Click on Save</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message like :" [ ACC11 ] Qspider - Organization Information   Updated today (24 Feb 2021) By Administrator ", Should be displayed.
-</t>
-  </si>
-  <si>
     <t>5. Logout From the application</t>
   </si>
   <si>
@@ -152,13 +138,34 @@
     <t>Child window with the title 
 Accounts&amp;action should be 
 displayed</t>
+  </si>
+  <si>
+    <t>Qspideredu@gmail.com</t>
+  </si>
+  <si>
+    <t>Organization Information</t>
+  </si>
+  <si>
+    <t>*Click on Save and Validate If organization is created successfully. The expected Success msg contains organization name with the text :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization should be created successfully.
+</t>
+  </si>
+  <si>
+    <t>Organization with the name 
+B-vtigerCRM Inc
+must be present.</t>
+  </si>
+  <si>
+    <t>B-vtigerCRM Inc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +178,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,10 +214,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -218,8 +234,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +599,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -591,80 +609,89 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>